--- a/Code/Results/Cases/Case_2_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.413178115500955</v>
+        <v>1.072819626034061</v>
       </c>
       <c r="C2">
-        <v>0.2844559138365952</v>
+        <v>0.3435275094902153</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1225366443133709</v>
+        <v>0.2840065267152241</v>
       </c>
       <c r="F2">
-        <v>0.9565375462639452</v>
+        <v>1.638888458801887</v>
       </c>
       <c r="G2">
-        <v>0.3097106832578334</v>
+        <v>0.4521337918305335</v>
       </c>
       <c r="H2">
-        <v>0.2510660419467001</v>
+        <v>0.6012146566492049</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04218107729419884</v>
+        <v>0.02673008410581801</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4767341318199527</v>
+        <v>0.527437139855536</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7933101770952504</v>
+        <v>1.163333828834936</v>
       </c>
       <c r="O2">
-        <v>1.132159878046963</v>
+        <v>2.06174823794035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.100001962122633</v>
+        <v>0.9792332856562211</v>
       </c>
       <c r="C3">
-        <v>0.2730979266072353</v>
+        <v>0.3400340101305801</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1183035003598754</v>
+        <v>0.2845522995601648</v>
       </c>
       <c r="F3">
-        <v>0.8972023702923337</v>
+        <v>1.636198992494187</v>
       </c>
       <c r="G3">
-        <v>0.289104039919323</v>
+        <v>0.451581717543128</v>
       </c>
       <c r="H3">
-        <v>0.2470143113273693</v>
+        <v>0.6047238828658905</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03858128462685073</v>
+        <v>0.02553044181803799</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.425668567130927</v>
+        <v>0.5154216813873518</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7988298700887739</v>
+        <v>1.168145426680894</v>
       </c>
       <c r="O3">
-        <v>1.079634915826631</v>
+        <v>2.067656929079604</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.907878088769536</v>
+        <v>0.9218580362356761</v>
       </c>
       <c r="C4">
-        <v>0.2661584224594122</v>
+        <v>0.3379116886093669</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1158545257297163</v>
+        <v>0.2849932299045079</v>
       </c>
       <c r="F4">
-        <v>0.8623686714242709</v>
+        <v>1.635444006141384</v>
       </c>
       <c r="G4">
-        <v>0.277216093131436</v>
+        <v>0.4515894712226967</v>
       </c>
       <c r="H4">
-        <v>0.245012984854128</v>
+        <v>0.6071683263018173</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03636691571279727</v>
+        <v>0.02479034283757287</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.394592573409227</v>
+        <v>0.5082314777685895</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8031279300504579</v>
+        <v>1.171539516046884</v>
       </c>
       <c r="O4">
-        <v>1.050014211524356</v>
+        <v>2.072617060798095</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.829608630478475</v>
+        <v>0.8985008106541272</v>
       </c>
       <c r="C5">
-        <v>0.263338902643568</v>
+        <v>0.3370526649790548</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1148929648915171</v>
+        <v>0.2851995722946405</v>
       </c>
       <c r="F5">
-        <v>0.8485546254277949</v>
+        <v>1.635361887138693</v>
       </c>
       <c r="G5">
-        <v>0.2725524634956997</v>
+        <v>0.4516797101785954</v>
       </c>
       <c r="H5">
-        <v>0.2443146364482516</v>
+        <v>0.6082373524138944</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03546341199041692</v>
+        <v>0.02448788347068742</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3819934601148418</v>
+        <v>0.5053488034017306</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8051010850131988</v>
+        <v>1.1730334166608</v>
       </c>
       <c r="O5">
-        <v>1.038569803134564</v>
+        <v>2.074973170075992</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816612861736388</v>
+        <v>0.8946238411164984</v>
       </c>
       <c r="C6">
-        <v>0.2628712231955745</v>
+        <v>0.3369103813263479</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1147354595071803</v>
+        <v>0.2852354469267802</v>
       </c>
       <c r="F6">
-        <v>0.8462832285890229</v>
+        <v>1.635361878002001</v>
       </c>
       <c r="G6">
-        <v>0.2717886661618891</v>
+        <v>0.4516999504736958</v>
       </c>
       <c r="H6">
-        <v>0.2442056102161914</v>
+        <v>0.6084192670432387</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03531331468408183</v>
+        <v>0.02443760880210633</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3799051359538197</v>
+        <v>0.5048730082573059</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8054419185243304</v>
+        <v>1.173288174717513</v>
       </c>
       <c r="O6">
-        <v>1.036706298937233</v>
+        <v>2.075384617276043</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.90682245304049</v>
+        <v>0.921542934438321</v>
       </c>
       <c r="C7">
-        <v>0.2661203637900371</v>
+        <v>0.3379000796975902</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1158414120785345</v>
+        <v>0.2849959047001533</v>
       </c>
       <c r="F7">
-        <v>0.8621808548370282</v>
+        <v>1.635441985240817</v>
       </c>
       <c r="G7">
-        <v>0.2771524804910754</v>
+        <v>0.4515903357808924</v>
       </c>
       <c r="H7">
-        <v>0.2450030986983904</v>
+        <v>0.6071824483685191</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03635473545612911</v>
+        <v>0.02478626723191013</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3944224027304557</v>
+        <v>0.5081924087471634</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8031536520737319</v>
+        <v>1.171559214490301</v>
       </c>
       <c r="O7">
-        <v>1.049857377620555</v>
+        <v>2.07264748068522</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.305147972660507</v>
+        <v>1.040533984383728</v>
       </c>
       <c r="C8">
-        <v>0.2805323858547411</v>
+        <v>0.3423183165800054</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1210450508838861</v>
+        <v>0.2841727747827925</v>
       </c>
       <c r="F8">
-        <v>0.9357341243044459</v>
+        <v>1.637775175502924</v>
       </c>
       <c r="G8">
-        <v>0.3024397494922013</v>
+        <v>0.4518714060057434</v>
       </c>
       <c r="H8">
-        <v>0.2495648892432172</v>
+        <v>0.6023645159346742</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04094065049287465</v>
+        <v>0.02631718871638711</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4590655670912156</v>
+        <v>0.5232554942237897</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7950204523559989</v>
+        <v>1.164901717464055</v>
       </c>
       <c r="O8">
-        <v>1.113481856789221</v>
+        <v>2.063508955809525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.08857226796016</v>
+        <v>1.274501518635191</v>
       </c>
       <c r="C9">
-        <v>0.3090814303972138</v>
+        <v>0.3511573123711713</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.132505560654419</v>
+        <v>0.2833962873858624</v>
       </c>
       <c r="F9">
-        <v>1.093653184394142</v>
+        <v>1.649458690661859</v>
       </c>
       <c r="G9">
-        <v>0.3586403097420003</v>
+        <v>0.4551794190142289</v>
       </c>
       <c r="H9">
-        <v>0.2626135131839931</v>
+        <v>0.5952145854075042</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04990663379724936</v>
+        <v>0.02929067064617996</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5883046294704712</v>
+        <v>0.5542699567995868</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.786612367338634</v>
+        <v>1.155327341639151</v>
       </c>
       <c r="O9">
-        <v>1.260781946304519</v>
+        <v>2.05616851685204</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.667071387708916</v>
+        <v>1.446709019375987</v>
       </c>
       <c r="C10">
-        <v>0.3302565305140064</v>
+        <v>0.3577515364978439</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1417864314219202</v>
+        <v>0.2833340494907866</v>
       </c>
       <c r="F10">
-        <v>1.219489917888779</v>
+        <v>1.662374048344788</v>
       </c>
       <c r="G10">
-        <v>0.4047642856089197</v>
+        <v>0.4592994712794649</v>
       </c>
       <c r="H10">
-        <v>0.2750592249146706</v>
+        <v>0.5913613551153958</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05648604731469931</v>
+        <v>0.03145698105327099</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.685163078340878</v>
+        <v>0.5779444416322974</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7855162401280893</v>
+        <v>1.150405023056862</v>
       </c>
       <c r="O10">
-        <v>1.385190618605066</v>
+        <v>2.057242655109917</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.93124336566774</v>
+        <v>1.525104449111723</v>
       </c>
       <c r="C11">
-        <v>0.3399395224487591</v>
+        <v>0.3607718801091835</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1462178071352227</v>
+        <v>0.2834156031739958</v>
       </c>
       <c r="F11">
-        <v>1.279214911915858</v>
+        <v>1.669189958033058</v>
       </c>
       <c r="G11">
-        <v>0.4269863972444057</v>
+        <v>0.4615426784941548</v>
       </c>
       <c r="H11">
-        <v>0.2814264484673288</v>
+        <v>0.5899121801059124</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05947952211876384</v>
+        <v>0.03243834861795136</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.729735349374792</v>
+        <v>0.5889051558876162</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7862354227405746</v>
+        <v>1.148622333900732</v>
       </c>
       <c r="O11">
-        <v>1.445881472553936</v>
+        <v>2.059139492999776</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.031455187307984</v>
+        <v>1.554797462907857</v>
       </c>
       <c r="C12">
-        <v>0.3436140059870212</v>
+        <v>0.3619184449770216</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1479279363703903</v>
+        <v>0.2834622386156127</v>
       </c>
       <c r="F12">
-        <v>1.302218746248073</v>
+        <v>1.671906142670522</v>
       </c>
       <c r="G12">
-        <v>0.4355965043002499</v>
+        <v>0.4624453180754671</v>
       </c>
       <c r="H12">
-        <v>0.2839465500380385</v>
+        <v>0.589407063156429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06061330658027941</v>
+        <v>0.03280935888284375</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7466954485832105</v>
+        <v>0.593082917340098</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7866930867218542</v>
+        <v>1.148012753053507</v>
       </c>
       <c r="O12">
-        <v>1.469504137066366</v>
+        <v>2.060060528848908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.009864458126799</v>
+        <v>1.548402287950523</v>
       </c>
       <c r="C13">
-        <v>0.342822287106344</v>
+        <v>0.3616713881691282</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1475581711766658</v>
+        <v>0.2834514949560294</v>
       </c>
       <c r="F13">
-        <v>1.297246728121564</v>
+        <v>1.671315154861958</v>
       </c>
       <c r="G13">
-        <v>0.4337332089306329</v>
+        <v>0.4622485510259793</v>
       </c>
       <c r="H13">
-        <v>0.2833988295863179</v>
+        <v>0.589513907828092</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06036911344814655</v>
+        <v>0.03272948278559795</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7430390261473008</v>
+        <v>0.5921819577278882</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7865861087971666</v>
+        <v>1.148141127222914</v>
       </c>
       <c r="O13">
-        <v>1.464387240909417</v>
+        <v>2.059853146294756</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.939484150192584</v>
+        <v>1.52754719442612</v>
       </c>
       <c r="C14">
-        <v>0.3402416661073744</v>
+        <v>0.3608661528219272</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1463578463371675</v>
+        <v>0.2834191244516582</v>
       </c>
       <c r="F14">
-        <v>1.28109950796987</v>
+        <v>1.669410712293697</v>
       </c>
       <c r="G14">
-        <v>0.4276907463921873</v>
+        <v>0.4616158725491744</v>
       </c>
       <c r="H14">
-        <v>0.2816315499852919</v>
+        <v>0.5898697490187885</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05957279391332548</v>
+        <v>0.03246888426047434</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7311289842961486</v>
+        <v>0.5892483198855984</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7862693000845269</v>
+        <v>1.14857087179854</v>
       </c>
       <c r="O14">
-        <v>1.447811783964625</v>
+        <v>2.059211202472227</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.89639799359594</v>
+        <v>1.514773620628489</v>
       </c>
       <c r="C15">
-        <v>0.3386619857921147</v>
+        <v>0.360373286973612</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1456268480454987</v>
+        <v>0.2834013467088603</v>
       </c>
       <c r="F15">
-        <v>1.271260242486477</v>
+        <v>1.668261782942068</v>
       </c>
       <c r="G15">
-        <v>0.4240154844199964</v>
+        <v>0.4612352688247228</v>
       </c>
       <c r="H15">
-        <v>0.2805634629494449</v>
+        <v>0.5900933966554049</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05908505865390623</v>
+        <v>0.0323091797096744</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7238446091815831</v>
+        <v>0.5874549123489601</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7860996942863352</v>
+        <v>1.148842626178265</v>
       </c>
       <c r="O15">
-        <v>1.437743810393329</v>
+        <v>2.05884440391921</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.649829995514608</v>
+        <v>1.441586687029655</v>
       </c>
       <c r="C16">
-        <v>0.3296247791295741</v>
+        <v>0.3575545528087076</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1415012088876324</v>
+        <v>0.2833309266381185</v>
       </c>
       <c r="F16">
-        <v>1.215639238409679</v>
+        <v>1.661947530950414</v>
       </c>
       <c r="G16">
-        <v>0.4033383791104939</v>
+        <v>0.459160308063332</v>
       </c>
       <c r="H16">
-        <v>0.2746579409271703</v>
+        <v>0.591462171666862</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05629043896597352</v>
+        <v>0.03139276194423601</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6822611341405747</v>
+        <v>0.5772319524737668</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7854946032027925</v>
+        <v>1.150530698195467</v>
       </c>
       <c r="O16">
-        <v>1.381311069630215</v>
+        <v>2.057147050114992</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.498848076618742</v>
+        <v>1.396702226846173</v>
       </c>
       <c r="C17">
-        <v>0.324093980549037</v>
+        <v>0.3558305295594693</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1390252562752217</v>
+        <v>0.2833158329553918</v>
       </c>
       <c r="F17">
-        <v>1.182174129006526</v>
+        <v>1.658314782203178</v>
       </c>
       <c r="G17">
-        <v>0.3909828369977362</v>
+        <v>0.4579819813209127</v>
       </c>
       <c r="H17">
-        <v>0.2712210038592247</v>
+        <v>0.5923796399239478</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05457625574767988</v>
+        <v>0.03082950336430557</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6568874449983042</v>
+        <v>0.5710092231046957</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7854423720333159</v>
+        <v>1.151683081215168</v>
       </c>
       <c r="O17">
-        <v>1.34777609536863</v>
+        <v>2.056466630089687</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.412100364827268</v>
+        <v>1.370891385226685</v>
       </c>
       <c r="C18">
-        <v>0.320917515474676</v>
+        <v>0.354840863827377</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1376207460617422</v>
+        <v>0.2833174953129252</v>
       </c>
       <c r="F18">
-        <v>1.163157490682593</v>
+        <v>1.656313866596648</v>
       </c>
       <c r="G18">
-        <v>0.3839919122125224</v>
+        <v>0.4573389610513487</v>
       </c>
       <c r="H18">
-        <v>0.2693101056597982</v>
+        <v>0.5929359279439836</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05359033702696792</v>
+        <v>0.03050514759416956</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6423407400269383</v>
+        <v>0.5674480762784242</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.785526308430164</v>
+        <v>1.152388878431893</v>
       </c>
       <c r="O18">
-        <v>1.328870005922965</v>
+        <v>2.05620780305378</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.382744179815859</v>
+        <v>1.362153282034114</v>
       </c>
       <c r="C19">
-        <v>0.3198428123328938</v>
+        <v>0.3545061185329956</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1371485107425947</v>
+        <v>0.2833198361187463</v>
       </c>
       <c r="F19">
-        <v>1.156757665648286</v>
+        <v>1.655651602232723</v>
       </c>
       <c r="G19">
-        <v>0.3816442765866128</v>
+        <v>0.4571272050846318</v>
       </c>
       <c r="H19">
-        <v>0.2686742124067791</v>
+        <v>0.5931291873740747</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05325652324250285</v>
+        <v>0.03039526099662382</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6374234085373871</v>
+        <v>0.5662454342163556</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.785574003177075</v>
+        <v>1.15263523550486</v>
       </c>
       <c r="O19">
-        <v>1.32253288915453</v>
+        <v>2.056142923724224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.514910511692449</v>
+        <v>1.401479697367961</v>
       </c>
       <c r="C20">
-        <v>0.3246822531562685</v>
+        <v>0.3560138542711684</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1392867842381129</v>
+        <v>0.2833163694863963</v>
       </c>
       <c r="F20">
-        <v>1.185712362016417</v>
+        <v>1.658692331231862</v>
       </c>
       <c r="G20">
-        <v>0.3922860177072636</v>
+        <v>0.458103821677966</v>
       </c>
       <c r="H20">
-        <v>0.2715799946376052</v>
+        <v>0.5922790155727142</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05475872886680477</v>
+        <v>0.03088950314558403</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6595835374288157</v>
+        <v>0.57166978224312</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7854360639156965</v>
+        <v>1.151555961284885</v>
       </c>
       <c r="O20">
-        <v>1.35130601927446</v>
+        <v>2.056525343546639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.960151532222596</v>
+        <v>1.533672683160432</v>
       </c>
       <c r="C21">
-        <v>0.3409994425494034</v>
+        <v>0.3611025943363728</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1467095245604497</v>
+        <v>0.2834282052907611</v>
       </c>
       <c r="F21">
-        <v>1.285831574617461</v>
+        <v>1.669966426312556</v>
       </c>
       <c r="G21">
-        <v>0.4294601307570218</v>
+        <v>0.4618002610997252</v>
       </c>
       <c r="H21">
-        <v>0.2821476230457307</v>
+        <v>0.589764045188744</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05980668500444608</v>
+        <v>0.03254544516677527</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7346249718868734</v>
+        <v>0.590109265244962</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7863572402732473</v>
+        <v>1.148442869404192</v>
       </c>
       <c r="O21">
-        <v>1.452662592973809</v>
+        <v>2.059394252559031</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.252181785354139</v>
+        <v>1.620104674691561</v>
       </c>
       <c r="C22">
-        <v>0.3517090860642469</v>
+        <v>0.3644447914999347</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1517485946771266</v>
+        <v>0.2835930947897332</v>
       </c>
       <c r="F22">
-        <v>1.353538206611631</v>
+        <v>1.678122387207267</v>
       </c>
       <c r="G22">
-        <v>0.4549012049284187</v>
+        <v>0.4645261631292499</v>
       </c>
       <c r="H22">
-        <v>0.2896932046345881</v>
+        <v>0.5883748099004436</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06310718028881723</v>
+        <v>0.03362411911775354</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7841483726331546</v>
+        <v>0.60231880192066</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7880447054128012</v>
+        <v>1.146789909149447</v>
       </c>
       <c r="O22">
-        <v>1.522663743048952</v>
+        <v>2.062451112783151</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.096213962277716</v>
+        <v>1.573971600565301</v>
       </c>
       <c r="C23">
-        <v>0.3459888101261868</v>
+        <v>0.3626595409642448</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1490412831139913</v>
+        <v>0.2834967057227971</v>
       </c>
       <c r="F23">
-        <v>1.317183331978057</v>
+        <v>1.673697362867642</v>
       </c>
       <c r="G23">
-        <v>0.4412121678727061</v>
+        <v>0.4630428851222774</v>
       </c>
       <c r="H23">
-        <v>0.2856049014580293</v>
+        <v>0.5890929941197527</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06134546558489973</v>
+        <v>0.03304874572167193</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7576701085611717</v>
+        <v>0.595787959675306</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7870412150641783</v>
+        <v>1.147637257766931</v>
       </c>
       <c r="O23">
-        <v>1.484941045511675</v>
+        <v>2.060711387900113</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.507648519477357</v>
+        <v>1.399319822010796</v>
       </c>
       <c r="C24">
-        <v>0.324416284979165</v>
+        <v>0.3559309684923591</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1391684885730307</v>
+        <v>0.2833160947099209</v>
       </c>
       <c r="F24">
-        <v>1.184112034873763</v>
+        <v>1.658521368440731</v>
       </c>
       <c r="G24">
-        <v>0.3916965007338149</v>
+        <v>0.4580486304604818</v>
       </c>
       <c r="H24">
-        <v>0.27141749287496</v>
+        <v>0.5923244180570748</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05467623406424238</v>
+        <v>0.03086237889660381</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6583645070426769</v>
+        <v>0.5713710924032114</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7854385616050763</v>
+        <v>1.151613297387684</v>
       </c>
       <c r="O24">
-        <v>1.349708980788023</v>
+        <v>2.056498386931565</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.876238484919497</v>
+        <v>1.21114732132753</v>
       </c>
       <c r="C25">
-        <v>0.3013249887514888</v>
+        <v>0.3487480733926418</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1292612146630105</v>
+        <v>0.28351691975978</v>
       </c>
       <c r="F25">
-        <v>1.049320331211945</v>
+        <v>1.645537199323442</v>
       </c>
       <c r="G25">
-        <v>0.3426487266115714</v>
+        <v>0.4539884397794793</v>
       </c>
       <c r="H25">
-        <v>0.2586086466346984</v>
+        <v>0.5969029275015743</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0474831324686491</v>
+        <v>0.02848941894207968</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5530375583031031</v>
+        <v>0.5457229202674512</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7880314867391434</v>
+        <v>1.15754586743747</v>
       </c>
       <c r="O25">
-        <v>1.218276925648809</v>
+        <v>2.057019833481064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.072819626034061</v>
+        <v>2.413178115501125</v>
       </c>
       <c r="C2">
-        <v>0.3435275094902153</v>
+        <v>0.284455913836851</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2840065267152241</v>
+        <v>0.1225366443133744</v>
       </c>
       <c r="F2">
-        <v>1.638888458801887</v>
+        <v>0.9565375462639309</v>
       </c>
       <c r="G2">
-        <v>0.4521337918305335</v>
+        <v>0.3097106832577694</v>
       </c>
       <c r="H2">
-        <v>0.6012146566492049</v>
+        <v>0.2510660419467001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02673008410581801</v>
+        <v>0.04218107729414911</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.527437139855536</v>
+        <v>0.4767341318199243</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.163333828834936</v>
+        <v>0.7933101770953144</v>
       </c>
       <c r="O2">
-        <v>2.06174823794035</v>
+        <v>1.13215987804702</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9792332856562211</v>
+        <v>2.100001962122747</v>
       </c>
       <c r="C3">
-        <v>0.3400340101305801</v>
+        <v>0.2730979266074627</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2845522995601648</v>
+        <v>0.1183035003598896</v>
       </c>
       <c r="F3">
-        <v>1.636198992494187</v>
+        <v>0.8972023702923337</v>
       </c>
       <c r="G3">
-        <v>0.451581717543128</v>
+        <v>0.2891040399193372</v>
       </c>
       <c r="H3">
-        <v>0.6047238828658905</v>
+        <v>0.2470143113273693</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02553044181803799</v>
+        <v>0.03858128462678323</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5154216813873518</v>
+        <v>0.4256685671309697</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.168145426680894</v>
+        <v>0.7988298700888166</v>
       </c>
       <c r="O3">
-        <v>2.067656929079604</v>
+        <v>1.079634915826631</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9218580362356761</v>
+        <v>1.907878088769621</v>
       </c>
       <c r="C4">
-        <v>0.3379116886093669</v>
+        <v>0.2661584224589717</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2849932299045079</v>
+        <v>0.1158545257297057</v>
       </c>
       <c r="F4">
-        <v>1.635444006141384</v>
+        <v>0.8623686714242638</v>
       </c>
       <c r="G4">
-        <v>0.4515894712226967</v>
+        <v>0.277216093131436</v>
       </c>
       <c r="H4">
-        <v>0.6071683263018173</v>
+        <v>0.245012984854128</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02479034283757287</v>
+        <v>0.03636691571292872</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5082314777685895</v>
+        <v>0.3945925734092697</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.171539516046884</v>
+        <v>0.8031279300504579</v>
       </c>
       <c r="O4">
-        <v>2.072617060798095</v>
+        <v>1.05001421152437</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8985008106541272</v>
+        <v>1.829608630478248</v>
       </c>
       <c r="C5">
-        <v>0.3370526649790548</v>
+        <v>0.2633389026433406</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2851995722946405</v>
+        <v>0.1148929648915598</v>
       </c>
       <c r="F5">
-        <v>1.635361887138693</v>
+        <v>0.8485546254277949</v>
       </c>
       <c r="G5">
-        <v>0.4516797101785954</v>
+        <v>0.2725524634956997</v>
       </c>
       <c r="H5">
-        <v>0.6082373524138944</v>
+        <v>0.2443146364482516</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02448788347068742</v>
+        <v>0.03546341199050573</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5053488034017306</v>
+        <v>0.3819934601147992</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.1730334166608</v>
+        <v>0.8051010850131988</v>
       </c>
       <c r="O5">
-        <v>2.074973170075992</v>
+        <v>1.038569803134564</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8946238411164984</v>
+        <v>1.816612861736388</v>
       </c>
       <c r="C6">
-        <v>0.3369103813263479</v>
+        <v>0.2628712231955603</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2852354469267802</v>
+        <v>0.1147354595071839</v>
       </c>
       <c r="F6">
-        <v>1.635361878002001</v>
+        <v>0.84628322858903</v>
       </c>
       <c r="G6">
-        <v>0.4516999504736958</v>
+        <v>0.2717886661617683</v>
       </c>
       <c r="H6">
-        <v>0.6084192670432387</v>
+        <v>0.2442056102161771</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02443760880210633</v>
+        <v>0.03531331468407828</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5048730082573059</v>
+        <v>0.3799051359537344</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.173288174717513</v>
+        <v>0.8054419185243233</v>
       </c>
       <c r="O6">
-        <v>2.075384617276043</v>
+        <v>1.036706298937247</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.921542934438321</v>
+        <v>1.906822453040462</v>
       </c>
       <c r="C7">
-        <v>0.3379000796975902</v>
+        <v>0.2661203637900513</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2849959047001533</v>
+        <v>0.1158414120785345</v>
       </c>
       <c r="F7">
-        <v>1.635441985240817</v>
+        <v>0.8621808548370211</v>
       </c>
       <c r="G7">
-        <v>0.4515903357808924</v>
+        <v>0.2771524804911394</v>
       </c>
       <c r="H7">
-        <v>0.6071824483685191</v>
+        <v>0.2450030986985041</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02478626723191013</v>
+        <v>0.03635473545609003</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5081924087471634</v>
+        <v>0.3944224027305125</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.171559214490301</v>
+        <v>0.8031536520737887</v>
       </c>
       <c r="O7">
-        <v>2.07264748068522</v>
+        <v>1.049857377620611</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.040533984383728</v>
+        <v>2.305147972660393</v>
       </c>
       <c r="C8">
-        <v>0.3423183165800054</v>
+        <v>0.2805323858545137</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2841727747827925</v>
+        <v>0.1210450508838861</v>
       </c>
       <c r="F8">
-        <v>1.637775175502924</v>
+        <v>0.9357341243044459</v>
       </c>
       <c r="G8">
-        <v>0.4518714060057434</v>
+        <v>0.3024397494922013</v>
       </c>
       <c r="H8">
-        <v>0.6023645159346742</v>
+        <v>0.2495648892432172</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02631718871638711</v>
+        <v>0.04094065049290663</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5232554942237897</v>
+        <v>0.4590655670911445</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.164901717464055</v>
+        <v>0.7950204523559918</v>
       </c>
       <c r="O8">
-        <v>2.063508955809525</v>
+        <v>1.113481856789221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.274501518635191</v>
+        <v>3.088572267960274</v>
       </c>
       <c r="C9">
-        <v>0.3511573123711713</v>
+        <v>0.309081430396958</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2833962873858624</v>
+        <v>0.1325055606544225</v>
       </c>
       <c r="F9">
-        <v>1.649458690661859</v>
+        <v>1.093653184394142</v>
       </c>
       <c r="G9">
-        <v>0.4551794190142289</v>
+        <v>0.3586403097420146</v>
       </c>
       <c r="H9">
-        <v>0.5952145854075042</v>
+        <v>0.2626135131840073</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02929067064617996</v>
+        <v>0.04990663379728133</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5542699567995868</v>
+        <v>0.588304629470386</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.155327341639151</v>
+        <v>0.7866123673386483</v>
       </c>
       <c r="O9">
-        <v>2.05616851685204</v>
+        <v>1.26078194630449</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.446709019375987</v>
+        <v>3.667071387709029</v>
       </c>
       <c r="C10">
-        <v>0.3577515364978439</v>
+        <v>0.3302565305141485</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2833340494907866</v>
+        <v>0.1417864314219131</v>
       </c>
       <c r="F10">
-        <v>1.662374048344788</v>
+        <v>1.219489917888779</v>
       </c>
       <c r="G10">
-        <v>0.4592994712794649</v>
+        <v>0.4047642856089055</v>
       </c>
       <c r="H10">
-        <v>0.5913613551153958</v>
+        <v>0.2750592249146706</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03145698105327099</v>
+        <v>0.05648604731479168</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5779444416322974</v>
+        <v>0.6851630783407501</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.150405023056862</v>
+        <v>0.7855162401280893</v>
       </c>
       <c r="O10">
-        <v>2.057242655109917</v>
+        <v>1.385190618605094</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.525104449111723</v>
+        <v>3.93124336566791</v>
       </c>
       <c r="C11">
-        <v>0.3607718801091835</v>
+        <v>0.3399395224488586</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2834156031739958</v>
+        <v>0.1462178071352191</v>
       </c>
       <c r="F11">
-        <v>1.669189958033058</v>
+        <v>1.279214911915858</v>
       </c>
       <c r="G11">
-        <v>0.4615426784941548</v>
+        <v>0.4269863972444483</v>
       </c>
       <c r="H11">
-        <v>0.5899121801059124</v>
+        <v>0.2814264484673288</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03243834861795136</v>
+        <v>0.05947952211873542</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5889051558876162</v>
+        <v>0.7297353493748915</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.148622333900732</v>
+        <v>0.7862354227405177</v>
       </c>
       <c r="O11">
-        <v>2.059139492999776</v>
+        <v>1.445881472553936</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.554797462907857</v>
+        <v>4.031455187307813</v>
       </c>
       <c r="C12">
-        <v>0.3619184449770216</v>
+        <v>0.3436140059867228</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2834622386156127</v>
+        <v>0.1479279363703867</v>
       </c>
       <c r="F12">
-        <v>1.671906142670522</v>
+        <v>1.302218746248073</v>
       </c>
       <c r="G12">
-        <v>0.4624453180754671</v>
+        <v>0.4355965043002641</v>
       </c>
       <c r="H12">
-        <v>0.589407063156429</v>
+        <v>0.2839465500380385</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03280935888284375</v>
+        <v>0.06061330658024389</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.593082917340098</v>
+        <v>0.7466954485831536</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.148012753053507</v>
+        <v>0.7866930867219395</v>
       </c>
       <c r="O12">
-        <v>2.060060528848908</v>
+        <v>1.469504137066394</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.548402287950523</v>
+        <v>4.009864458126856</v>
       </c>
       <c r="C13">
-        <v>0.3616713881691282</v>
+        <v>0.3428222871061877</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2834514949560294</v>
+        <v>0.1475581711766729</v>
       </c>
       <c r="F13">
-        <v>1.671315154861958</v>
+        <v>1.297246728121578</v>
       </c>
       <c r="G13">
-        <v>0.4622485510259793</v>
+        <v>0.4337332089306898</v>
       </c>
       <c r="H13">
-        <v>0.589513907828092</v>
+        <v>0.2833988295864316</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03272948278559795</v>
+        <v>0.06036911344813944</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5921819577278882</v>
+        <v>0.7430390261473576</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.148141127222914</v>
+        <v>0.7865861087971666</v>
       </c>
       <c r="O13">
-        <v>2.059853146294756</v>
+        <v>1.464387240909417</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.52754719442612</v>
+        <v>3.939484150192641</v>
       </c>
       <c r="C14">
-        <v>0.3608661528219272</v>
+        <v>0.340241666107147</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2834191244516582</v>
+        <v>0.1463578463371675</v>
       </c>
       <c r="F14">
-        <v>1.669410712293697</v>
+        <v>1.281099507969856</v>
       </c>
       <c r="G14">
-        <v>0.4616158725491744</v>
+        <v>0.4276907463921873</v>
       </c>
       <c r="H14">
-        <v>0.5898697490187885</v>
+        <v>0.2816315499853062</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03246888426047434</v>
+        <v>0.05957279391327575</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5892483198855984</v>
+        <v>0.7311289842960917</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.14857087179854</v>
+        <v>0.7862693000845127</v>
       </c>
       <c r="O14">
-        <v>2.059211202472227</v>
+        <v>1.447811783964653</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.514773620628489</v>
+        <v>3.896397993596111</v>
       </c>
       <c r="C15">
-        <v>0.360373286973612</v>
+        <v>0.3386619857918731</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2834013467088603</v>
+        <v>0.1456268480455023</v>
       </c>
       <c r="F15">
-        <v>1.668261782942068</v>
+        <v>1.271260242486491</v>
       </c>
       <c r="G15">
-        <v>0.4612352688247228</v>
+        <v>0.424015484420039</v>
       </c>
       <c r="H15">
-        <v>0.5900933966554049</v>
+        <v>0.2805634629494591</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0323091797096744</v>
+        <v>0.05908505865397373</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5874549123489601</v>
+        <v>0.7238446091816542</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.148842626178265</v>
+        <v>0.786099694286321</v>
       </c>
       <c r="O15">
-        <v>2.05884440391921</v>
+        <v>1.437743810393357</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.441586687029655</v>
+        <v>3.649829995514835</v>
       </c>
       <c r="C16">
-        <v>0.3575545528087076</v>
+        <v>0.3296247791293609</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2833309266381185</v>
+        <v>0.1415012088876466</v>
       </c>
       <c r="F16">
-        <v>1.661947530950414</v>
+        <v>1.215639238409679</v>
       </c>
       <c r="G16">
-        <v>0.459160308063332</v>
+        <v>0.403338379110437</v>
       </c>
       <c r="H16">
-        <v>0.591462171666862</v>
+        <v>0.2746579409270566</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03139276194423601</v>
+        <v>0.05629043896596997</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5772319524737668</v>
+        <v>0.6822611341405036</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.150530698195467</v>
+        <v>0.7854946032027925</v>
       </c>
       <c r="O16">
-        <v>2.057147050114992</v>
+        <v>1.381311069630186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.396702226846173</v>
+        <v>3.49884807661897</v>
       </c>
       <c r="C17">
-        <v>0.3558305295594693</v>
+        <v>0.3240939805487812</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2833158329553918</v>
+        <v>0.1390252562752217</v>
       </c>
       <c r="F17">
-        <v>1.658314782203178</v>
+        <v>1.18217412900654</v>
       </c>
       <c r="G17">
-        <v>0.4579819813209127</v>
+        <v>0.3909828369977504</v>
       </c>
       <c r="H17">
-        <v>0.5923796399239478</v>
+        <v>0.2712210038592389</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03082950336430557</v>
+        <v>0.05457625574768343</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5710092231046957</v>
+        <v>0.6568874449983895</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.151683081215168</v>
+        <v>0.7854423720332591</v>
       </c>
       <c r="O17">
-        <v>2.056466630089687</v>
+        <v>1.347776095368658</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.370891385226685</v>
+        <v>3.412100364827211</v>
       </c>
       <c r="C18">
-        <v>0.354840863827377</v>
+        <v>0.3209175154745338</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2833174953129252</v>
+        <v>0.1376207460617351</v>
       </c>
       <c r="F18">
-        <v>1.656313866596648</v>
+        <v>1.163157490682593</v>
       </c>
       <c r="G18">
-        <v>0.4573389610513487</v>
+        <v>0.3839919122124797</v>
       </c>
       <c r="H18">
-        <v>0.5929359279439836</v>
+        <v>0.2693101056596845</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03050514759416956</v>
+        <v>0.05359033702689686</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5674480762784242</v>
+        <v>0.6423407400269383</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.152388878431893</v>
+        <v>0.7855263084301214</v>
       </c>
       <c r="O18">
-        <v>2.05620780305378</v>
+        <v>1.328870005922994</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.362153282034114</v>
+        <v>3.382744179815973</v>
       </c>
       <c r="C19">
-        <v>0.3545061185329956</v>
+        <v>0.3198428123328938</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2833198361187463</v>
+        <v>0.1371485107426018</v>
       </c>
       <c r="F19">
-        <v>1.655651602232723</v>
+        <v>1.1567576656483</v>
       </c>
       <c r="G19">
-        <v>0.4571272050846318</v>
+        <v>0.3816442765866128</v>
       </c>
       <c r="H19">
-        <v>0.5931291873740747</v>
+        <v>0.2686742124068928</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03039526099662382</v>
+        <v>0.05325652324243535</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5662454342163556</v>
+        <v>0.6374234085373587</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.15263523550486</v>
+        <v>0.7855740031770893</v>
       </c>
       <c r="O19">
-        <v>2.056142923724224</v>
+        <v>1.32253288915453</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.401479697367961</v>
+        <v>3.514910511692221</v>
       </c>
       <c r="C20">
-        <v>0.3560138542711684</v>
+        <v>0.3246822531561975</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2833163694863963</v>
+        <v>0.1392867842381023</v>
       </c>
       <c r="F20">
-        <v>1.658692331231862</v>
+        <v>1.185712362016446</v>
       </c>
       <c r="G20">
-        <v>0.458103821677966</v>
+        <v>0.3922860177072209</v>
       </c>
       <c r="H20">
-        <v>0.5922790155727142</v>
+        <v>0.2715799946374915</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03088950314558403</v>
+        <v>0.05475872886679767</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.57166978224312</v>
+        <v>0.6595835374288015</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.151555961284885</v>
+        <v>0.7854360639156823</v>
       </c>
       <c r="O20">
-        <v>2.056525343546639</v>
+        <v>1.351306019274432</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.533672683160432</v>
+        <v>3.960151532222596</v>
       </c>
       <c r="C21">
-        <v>0.3611025943363728</v>
+        <v>0.3409994425494034</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2834282052907611</v>
+        <v>0.1467095245604462</v>
       </c>
       <c r="F21">
-        <v>1.669966426312556</v>
+        <v>1.285831574617461</v>
       </c>
       <c r="G21">
-        <v>0.4618002610997252</v>
+        <v>0.4294601307570218</v>
       </c>
       <c r="H21">
-        <v>0.589764045188744</v>
+        <v>0.2821476230457307</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03254544516677527</v>
+        <v>0.05980668500435371</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.590109265244962</v>
+        <v>0.7346249718868592</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.148442869404192</v>
+        <v>0.7863572402732473</v>
       </c>
       <c r="O21">
-        <v>2.059394252559031</v>
+        <v>1.452662592973809</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.620104674691561</v>
+        <v>4.252181785354139</v>
       </c>
       <c r="C22">
-        <v>0.3644447914999347</v>
+        <v>0.3517090860644885</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2835930947897332</v>
+        <v>0.1517485946771266</v>
       </c>
       <c r="F22">
-        <v>1.678122387207267</v>
+        <v>1.35353820661166</v>
       </c>
       <c r="G22">
-        <v>0.4645261631292499</v>
+        <v>0.4549012049284471</v>
       </c>
       <c r="H22">
-        <v>0.5883748099004436</v>
+        <v>0.2896932046345881</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03362411911775354</v>
+        <v>0.0631071802887746</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.60231880192066</v>
+        <v>0.7841483726330978</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.146789909149447</v>
+        <v>0.788044705412787</v>
       </c>
       <c r="O22">
-        <v>2.062451112783151</v>
+        <v>1.522663743048952</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.573971600565301</v>
+        <v>4.096213962277716</v>
       </c>
       <c r="C23">
-        <v>0.3626595409642448</v>
+        <v>0.3459888101261726</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2834967057227971</v>
+        <v>0.1490412831139842</v>
       </c>
       <c r="F23">
-        <v>1.673697362867642</v>
+        <v>1.317183331978057</v>
       </c>
       <c r="G23">
-        <v>0.4630428851222774</v>
+        <v>0.4412121678726919</v>
       </c>
       <c r="H23">
-        <v>0.5890929941197527</v>
+        <v>0.285604901458143</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03304874572167193</v>
+        <v>0.06134546558500631</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.595787959675306</v>
+        <v>0.7576701085611433</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.147637257766931</v>
+        <v>0.7870412150641215</v>
       </c>
       <c r="O23">
-        <v>2.060711387900113</v>
+        <v>1.484941045511732</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.399319822010796</v>
+        <v>3.507648519477414</v>
       </c>
       <c r="C24">
-        <v>0.3559309684923591</v>
+        <v>0.3244162849789376</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2833160947099209</v>
+        <v>0.1391684885730555</v>
       </c>
       <c r="F24">
-        <v>1.658521368440731</v>
+        <v>1.184112034873777</v>
       </c>
       <c r="G24">
-        <v>0.4580486304604818</v>
+        <v>0.3916965007337865</v>
       </c>
       <c r="H24">
-        <v>0.5923244180570748</v>
+        <v>0.27141749287496</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03086237889660381</v>
+        <v>0.0546762340643312</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5713710924032114</v>
+        <v>0.6583645070426485</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.151613297387684</v>
+        <v>0.7854385616051047</v>
       </c>
       <c r="O24">
-        <v>2.056498386931565</v>
+        <v>1.349708980788051</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.21114732132753</v>
+        <v>2.87623848491944</v>
       </c>
       <c r="C25">
-        <v>0.3487480733926418</v>
+        <v>0.3013249887514746</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.28351691975978</v>
+        <v>0.1292612146629963</v>
       </c>
       <c r="F25">
-        <v>1.645537199323442</v>
+        <v>1.049320331211931</v>
       </c>
       <c r="G25">
-        <v>0.4539884397794793</v>
+        <v>0.3426487266115572</v>
       </c>
       <c r="H25">
-        <v>0.5969029275015743</v>
+        <v>0.2586086466346984</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02848941894207968</v>
+        <v>0.047483132468642</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5457229202674512</v>
+        <v>0.5530375583031599</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.15754586743747</v>
+        <v>0.7880314867391434</v>
       </c>
       <c r="O25">
-        <v>2.057019833481064</v>
+        <v>1.218276925648752</v>
       </c>
     </row>
   </sheetData>
